--- a/draft/fig2/conservation.xlsx
+++ b/draft/fig2/conservation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
   <si>
     <t>kcat</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>hc</t>
+  </si>
+  <si>
+    <t>BglB</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -410,409 +416,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.246240518817829"/>
-                  <c:y val="-0.0953062217337249"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>sb_data.csv!$L$2:$L$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>0.516714602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.221659962</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.049353543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04008887</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.017404717</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.017467927</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.077459126</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.185169937</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.292536499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.373091476</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.381706582</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.573418147</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.585893595</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.640030299</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.645946421</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.711769405</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.718664051</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.831763674</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.973119251</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.066352619</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.193251123</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.238613979</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.258293829</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.438485931</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.615446092</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.059131994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.116379082</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.484135413</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.488009609</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.640251257</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.937978618</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-2.949086499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-3.006757103</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-3.342549205</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-4.155462562</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-4.535673803</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-4.757522553</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-4.933613812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>sb_data.csv!$O$2:$O$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2046384584"/>
-        <c:axId val="2046394648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2046384584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046394648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2046394648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="85.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046384584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,15 +791,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="12" max="12" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,23 +826,20 @@
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>-3.645422269</v>
       </c>
@@ -1199,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>MID(D2,LEN(D2),1)</f>
+        <f t="shared" ref="E2:E33" si="0">MID(D2,LEN(D2),1)</f>
         <v>A</v>
       </c>
       <c r="F2" s="1">
@@ -1210,21 +864,17 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0.51671460199999997</v>
       </c>
       <c r="M2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" t="str">
-        <f>MID(M2,LEN(M2),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O2">
+      <c r="N2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1232,7 +882,7 @@
         <v>64</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>MID(D3,LEN(D3),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F3" s="1">
@@ -1243,21 +893,17 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.22165996199999999</v>
       </c>
       <c r="M3" t="s">
         <v>102</v>
       </c>
-      <c r="N3" t="str">
-        <f>MID(M3,LEN(M3),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O3">
+      <c r="N3">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
@@ -1267,7 +913,7 @@
         <v>81</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>MID(D4,LEN(D4),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F4" s="1">
@@ -1278,21 +924,17 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>4.9353543E-2</v>
       </c>
       <c r="M4" t="s">
         <v>79</v>
       </c>
-      <c r="N4" t="str">
-        <f>MID(M4,LEN(M4),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O4">
+      <c r="N4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1300,7 +942,7 @@
         <v>92</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>MID(D5,LEN(D5),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F5" s="1">
@@ -1311,21 +953,17 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>4.0088869999999999E-2</v>
       </c>
       <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="str">
-        <f>MID(M5,LEN(M5),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O5">
+      <c r="N5">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>-2.5314789169999998</v>
       </c>
@@ -1339,7 +977,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>MID(D6,LEN(D6),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F6" s="1">
@@ -1350,21 +988,17 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>-1.7404717E-2</v>
       </c>
       <c r="M6" t="s">
         <v>91</v>
       </c>
-      <c r="N6" t="str">
-        <f>MID(M6,LEN(M6),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O6">
+      <c r="N6">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>-0.79111622800000003</v>
       </c>
@@ -1378,7 +1012,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>MID(D7,LEN(D7),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F7" s="1">
@@ -1389,21 +1023,17 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>-1.7467927000000001E-2</v>
       </c>
       <c r="M7" t="s">
         <v>39</v>
       </c>
-      <c r="N7" t="str">
-        <f>MID(M7,LEN(M7),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O7">
+      <c r="N7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>-2.120377462</v>
       </c>
@@ -1417,7 +1047,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>MID(D8,LEN(D8),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F8" s="1">
@@ -1428,21 +1058,17 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>-7.7459126000000003E-2</v>
       </c>
       <c r="M8" t="s">
         <v>49</v>
       </c>
-      <c r="N8" t="str">
-        <f>MID(M8,LEN(M8),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O8">
+      <c r="N8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>-2.946452265</v>
       </c>
@@ -1456,7 +1082,7 @@
         <v>83</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>MID(D9,LEN(D9),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F9" s="1">
@@ -1467,21 +1093,17 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>-0.18516993700000001</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
       </c>
-      <c r="N9" t="str">
-        <f>MID(M9,LEN(M9),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O9">
+      <c r="N9">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>-3.645422269</v>
       </c>
@@ -1495,7 +1117,7 @@
         <v>87</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>MID(D10,LEN(D10),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F10" s="1">
@@ -1506,21 +1128,17 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>-0.29253649900000001</v>
       </c>
       <c r="M10" t="s">
         <v>46</v>
       </c>
-      <c r="N10" t="str">
-        <f>MID(M10,LEN(M10),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O10">
+      <c r="N10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>-10</v>
       </c>
@@ -1534,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>MID(D11,LEN(D11),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F11" s="1">
@@ -1545,21 +1163,17 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>-0.37309147599999998</v>
       </c>
       <c r="M11" t="s">
         <v>35</v>
       </c>
-      <c r="N11" t="str">
-        <f>MID(M11,LEN(M11),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O11">
+      <c r="N11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>-2.4693310099999999</v>
       </c>
@@ -1573,7 +1187,7 @@
         <v>82</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>MID(D12,LEN(D12),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F12" s="1">
@@ -1584,21 +1198,17 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>-0.38170658200000002</v>
       </c>
       <c r="M12" t="s">
         <v>42</v>
       </c>
-      <c r="N12" t="str">
-        <f>MID(M12,LEN(M12),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O12">
+      <c r="N12">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>-1.478104935</v>
       </c>
@@ -1612,27 +1222,23 @@
         <v>74</v>
       </c>
       <c r="E13" t="str">
-        <f>MID(D13,LEN(D13),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F13">
         <v>70</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>-0.57341814700000004</v>
       </c>
       <c r="M13" t="s">
         <v>7</v>
       </c>
-      <c r="N13" t="str">
-        <f>MID(M13,LEN(M13),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O13">
+      <c r="N13">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>-0.44130228700000002</v>
       </c>
@@ -1646,27 +1252,23 @@
         <v>4</v>
       </c>
       <c r="E14" t="str">
-        <f>MID(D14,LEN(D14),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F14">
         <v>61</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>-0.58589359500000004</v>
       </c>
       <c r="M14" t="s">
         <v>71</v>
       </c>
-      <c r="N14" t="str">
-        <f>MID(M14,LEN(M14),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O14">
+      <c r="N14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>-3.4230207999999998E-2</v>
       </c>
@@ -1680,27 +1282,23 @@
         <v>78</v>
       </c>
       <c r="E15" t="str">
-        <f>MID(D15,LEN(D15),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F15">
         <v>60</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>-0.64003029899999997</v>
       </c>
       <c r="M15" t="s">
         <v>45</v>
       </c>
-      <c r="N15" t="str">
-        <f>MID(M15,LEN(M15),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O15">
+      <c r="N15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>-1.8056413E-2</v>
       </c>
@@ -1714,27 +1312,23 @@
         <v>7</v>
       </c>
       <c r="E16" t="str">
-        <f>MID(D16,LEN(D16),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F16">
         <v>52</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>-0.64594642099999999</v>
       </c>
       <c r="M16" t="s">
         <v>4</v>
       </c>
-      <c r="N16" t="str">
-        <f>MID(M16,LEN(M16),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O16">
+      <c r="N16">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>-1.842648544</v>
       </c>
@@ -1748,27 +1342,23 @@
         <v>61</v>
       </c>
       <c r="E17" t="str">
-        <f>MID(D17,LEN(D17),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F17">
         <v>50</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>-0.71176940499999997</v>
       </c>
       <c r="M17" t="s">
         <v>62</v>
       </c>
-      <c r="N17" t="str">
-        <f>MID(M17,LEN(M17),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O17">
+      <c r="N17">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>-0.72634417699999998</v>
       </c>
@@ -1782,27 +1372,23 @@
         <v>62</v>
       </c>
       <c r="E18" t="str">
-        <f>MID(D18,LEN(D18),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F18">
         <v>49</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>-0.71866405099999997</v>
       </c>
       <c r="M18" t="s">
         <v>32</v>
       </c>
-      <c r="N18" t="str">
-        <f>MID(M18,LEN(M18),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O18">
+      <c r="N18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>-0.75893154399999996</v>
       </c>
@@ -1816,27 +1402,23 @@
         <v>5</v>
       </c>
       <c r="E19" t="str">
-        <f>MID(D19,LEN(D19),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F19">
         <v>48</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>-0.83176367399999995</v>
       </c>
       <c r="M19" t="s">
         <v>43</v>
       </c>
-      <c r="N19" t="str">
-        <f>MID(M19,LEN(M19),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O19">
+      <c r="N19">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:15">
       <c r="C20">
         <v>-4.5356738029999999</v>
       </c>
@@ -1844,27 +1426,23 @@
         <v>96</v>
       </c>
       <c r="E20" t="str">
-        <f>MID(D20,LEN(D20),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F20">
         <v>47</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>-0.97311925099999996</v>
       </c>
       <c r="M20" t="s">
         <v>74</v>
       </c>
-      <c r="N20" t="str">
-        <f>MID(M20,LEN(M20),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O20">
+      <c r="N20">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>-2.8325089129999999</v>
       </c>
@@ -1878,27 +1456,23 @@
         <v>103</v>
       </c>
       <c r="E21" t="str">
-        <f>MID(D21,LEN(D21),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F21">
         <v>47</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>-1.0663526189999999</v>
       </c>
       <c r="M21" t="s">
         <v>40</v>
       </c>
-      <c r="N21" t="str">
-        <f>MID(M21,LEN(M21),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O21">
+      <c r="N21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>-0.15899178999999999</v>
       </c>
@@ -1912,27 +1486,23 @@
         <v>15</v>
       </c>
       <c r="E22" t="str">
-        <f>MID(D22,LEN(D22),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F22">
         <v>44</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>-1.193251123</v>
       </c>
       <c r="M22" t="s">
         <v>5</v>
       </c>
-      <c r="N22" t="str">
-        <f>MID(M22,LEN(M22),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O22">
+      <c r="N22">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>-1.8895474139999999</v>
       </c>
@@ -1946,27 +1516,23 @@
         <v>97</v>
       </c>
       <c r="E23" t="str">
-        <f>MID(D23,LEN(D23),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F23">
         <v>44</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>-1.2386139789999999</v>
       </c>
       <c r="M23" t="s">
         <v>66</v>
       </c>
-      <c r="N23" t="str">
-        <f>MID(M23,LEN(M23),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O23">
+      <c r="N23">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>-0.221357744</v>
       </c>
@@ -1980,55 +1546,47 @@
         <v>91</v>
       </c>
       <c r="E24" t="str">
-        <f>MID(D24,LEN(D24),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F24">
         <v>41</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>-1.2582938290000001</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="1" t="str">
-        <f>MID(M24,LEN(M24),1)</f>
-        <v>A</v>
+      <c r="N24" s="1">
+        <v>96</v>
       </c>
       <c r="O24" s="1">
-        <v>96</v>
-      </c>
-      <c r="P24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:15">
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="str">
-        <f>MID(D25,LEN(D25),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F25">
         <v>40</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>-1.438485931</v>
       </c>
       <c r="M25" t="s">
         <v>8</v>
       </c>
-      <c r="N25" t="str">
-        <f>MID(M25,LEN(M25),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O25">
+      <c r="N25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>-1.171935299</v>
       </c>
@@ -2042,52 +1600,44 @@
         <v>80</v>
       </c>
       <c r="E26" t="str">
-        <f>MID(D26,LEN(D26),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F26">
         <v>40</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>-1.615446092</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
       </c>
-      <c r="N26" t="str">
-        <f>MID(M26,LEN(M26),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O26">
+      <c r="N26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:15">
       <c r="D27" t="s">
         <v>24</v>
       </c>
       <c r="E27" t="str">
-        <f>MID(D27,LEN(D27),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F27">
         <v>34</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>-2.0591319939999999</v>
       </c>
       <c r="M27" t="s">
         <v>97</v>
       </c>
-      <c r="N27" t="str">
-        <f>MID(M27,LEN(M27),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O27">
+      <c r="N27">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>-2.3782505409999999</v>
       </c>
@@ -2101,27 +1651,23 @@
         <v>93</v>
       </c>
       <c r="E28" t="str">
-        <f>MID(D28,LEN(D28),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F28">
         <v>34</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>-2.1163790819999999</v>
       </c>
       <c r="M28" t="s">
         <v>61</v>
       </c>
-      <c r="N28" t="str">
-        <f>MID(M28,LEN(M28),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O28">
+      <c r="N28">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>-2.4765789999999999E-2</v>
       </c>
@@ -2135,58 +1681,50 @@
         <v>102</v>
       </c>
       <c r="E29" t="str">
-        <f>MID(D29,LEN(D29),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F29">
         <v>27</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="2">
         <v>-2.4841354130000002</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N29" s="1" t="str">
-        <f>MID(M29,LEN(M29),1)</f>
-        <v>A</v>
+      <c r="N29" s="1">
+        <v>96</v>
       </c>
       <c r="O29" s="1">
-        <v>96</v>
-      </c>
-      <c r="P29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:15">
       <c r="D30" t="s">
         <v>94</v>
       </c>
       <c r="E30" t="str">
-        <f>MID(D30,LEN(D30),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F30">
         <v>26</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="2">
         <v>-2.4880096090000001</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N30" s="1" t="str">
-        <f>MID(M30,LEN(M30),1)</f>
-        <v>A</v>
+      <c r="N30" s="1">
+        <v>86</v>
       </c>
       <c r="O30" s="1">
-        <v>86</v>
-      </c>
-      <c r="P30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>-0.65198603899999996</v>
       </c>
@@ -2200,27 +1738,23 @@
         <v>8</v>
       </c>
       <c r="E31" t="str">
-        <f>MID(D31,LEN(D31),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F31">
         <v>25</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>-2.6402512570000001</v>
       </c>
       <c r="M31" t="s">
         <v>93</v>
       </c>
-      <c r="N31" t="str">
-        <f>MID(M31,LEN(M31),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O31">
+      <c r="N31">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>-0.64759918900000002</v>
       </c>
@@ -2234,30 +1768,26 @@
         <v>43</v>
       </c>
       <c r="E32" t="str">
-        <f>MID(D32,LEN(D32),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F32">
         <v>22</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="2">
         <v>-2.9379786179999998</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="1" t="str">
-        <f>MID(M32,LEN(M32),1)</f>
-        <v>A</v>
+      <c r="N32" s="1">
+        <v>100</v>
       </c>
       <c r="O32" s="1">
-        <v>100</v>
-      </c>
-      <c r="P32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>-0.33899724199999998</v>
       </c>
@@ -2271,30 +1801,26 @@
         <v>45</v>
       </c>
       <c r="E33" t="str">
-        <f>MID(D33,LEN(D33),1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F33">
         <v>19</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="2">
         <v>-2.9490864989999999</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="1" t="str">
-        <f>MID(M33,LEN(M33),1)</f>
-        <v>A</v>
+      <c r="N33" s="1">
+        <v>96</v>
       </c>
       <c r="O33" s="1">
-        <v>96</v>
-      </c>
-      <c r="P33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>-0.27993428399999998</v>
       </c>
@@ -2308,30 +1834,26 @@
         <v>42</v>
       </c>
       <c r="E34" t="str">
-        <f>MID(D34,LEN(D34),1)</f>
+        <f t="shared" ref="E34:E65" si="1">MID(D34,LEN(D34),1)</f>
         <v>A</v>
       </c>
       <c r="F34">
         <v>17</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="2">
         <v>-3.006757103</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N34" s="1" t="str">
-        <f>MID(M34,LEN(M34),1)</f>
-        <v>A</v>
+      <c r="N34" s="1">
+        <v>96</v>
       </c>
       <c r="O34" s="1">
-        <v>96</v>
-      </c>
-      <c r="P34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>7.4737033999999994E-2</v>
       </c>
@@ -2345,27 +1867,23 @@
         <v>79</v>
       </c>
       <c r="E35" t="str">
-        <f>MID(D35,LEN(D35),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F35">
         <v>16</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>-3.3425492050000001</v>
       </c>
       <c r="M35" t="s">
         <v>103</v>
       </c>
-      <c r="N35" t="str">
-        <f>MID(M35,LEN(M35),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O35">
+      <c r="N35">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>-0.90902576700000004</v>
       </c>
@@ -2379,30 +1897,26 @@
         <v>66</v>
       </c>
       <c r="E36" t="str">
-        <f>MID(D36,LEN(D36),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F36">
         <v>14</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="2">
         <v>-4.1554625620000003</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N36" s="1" t="str">
-        <f>MID(M36,LEN(M36),1)</f>
-        <v>A</v>
+      <c r="N36" s="1">
+        <v>96</v>
       </c>
       <c r="O36" s="1">
-        <v>96</v>
-      </c>
-      <c r="P36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1.0949404199999999</v>
       </c>
@@ -2416,27 +1930,23 @@
         <v>56</v>
       </c>
       <c r="E37" t="str">
-        <f>MID(D37,LEN(D37),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F37">
         <v>13</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>-4.5356738029999999</v>
       </c>
       <c r="M37" t="s">
         <v>96</v>
       </c>
-      <c r="N37" t="str">
-        <f>MID(M37,LEN(M37),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O37">
+      <c r="N37">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>-0.26611675200000001</v>
       </c>
@@ -2450,30 +1960,26 @@
         <v>32</v>
       </c>
       <c r="E38" t="str">
-        <f>MID(D38,LEN(D38),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F38">
         <v>11</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="2">
         <v>-4.7575225530000003</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="1" t="str">
-        <f>MID(M38,LEN(M38),1)</f>
-        <v>A</v>
+      <c r="N38" s="1">
+        <v>95</v>
       </c>
       <c r="O38" s="1">
-        <v>95</v>
-      </c>
-      <c r="P38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>-3.9578729999999999E-2</v>
       </c>
@@ -2487,30 +1993,26 @@
         <v>35</v>
       </c>
       <c r="E39" t="str">
-        <f>MID(D39,LEN(D39),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F39">
         <v>11</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="2">
         <v>-4.9336138119999999</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N39" s="1" t="str">
-        <f>MID(M39,LEN(M39),1)</f>
-        <v>A</v>
+      <c r="N39" s="1">
+        <v>100</v>
       </c>
       <c r="O39" s="1">
-        <v>100</v>
-      </c>
-      <c r="P39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>-0.32735893399999999</v>
       </c>
@@ -2524,54 +2026,46 @@
         <v>71</v>
       </c>
       <c r="E40" t="str">
-        <f>MID(D40,LEN(D40),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F40">
         <v>10</v>
       </c>
-      <c r="L40" s="1"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N40" s="1" t="str">
-        <f>MID(M40,LEN(M40),1)</f>
-        <v>A</v>
+      <c r="N40" s="1">
+        <v>100</v>
       </c>
       <c r="O40" s="1">
-        <v>100</v>
-      </c>
-      <c r="P40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:15">
       <c r="D41" t="s">
         <v>101</v>
       </c>
       <c r="E41" t="str">
-        <f>MID(D41,LEN(D41),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F41">
         <v>10</v>
       </c>
-      <c r="L41" s="1"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="1" t="str">
-        <f>MID(M41,LEN(M41),1)</f>
-        <v>A</v>
+      <c r="N41" s="1">
+        <v>98</v>
       </c>
       <c r="O41" s="1">
-        <v>98</v>
-      </c>
-      <c r="P41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>-0.89337382200000004</v>
       </c>
@@ -2585,7 +2079,7 @@
         <v>40</v>
       </c>
       <c r="E42" t="str">
-        <f>MID(D42,LEN(D42),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F42">
@@ -2594,15 +2088,11 @@
       <c r="M42" t="s">
         <v>13</v>
       </c>
-      <c r="N42" t="str">
-        <f>MID(M42,LEN(M42),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O42">
+      <c r="N42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>-0.99269257300000002</v>
       </c>
@@ -2616,7 +2106,7 @@
         <v>49</v>
       </c>
       <c r="E43" t="str">
-        <f>MID(D43,LEN(D43),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F43">
@@ -2625,15 +2115,11 @@
       <c r="M43" t="s">
         <v>24</v>
       </c>
-      <c r="N43" t="str">
-        <f>MID(M43,LEN(M43),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O43">
+      <c r="N43">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>4.7424649999999999E-2</v>
       </c>
@@ -2647,7 +2133,7 @@
         <v>39</v>
       </c>
       <c r="E44" t="str">
-        <f>MID(D44,LEN(D44),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F44">
@@ -2656,15 +2142,11 @@
       <c r="M44" t="s">
         <v>94</v>
       </c>
-      <c r="N44" t="str">
-        <f>MID(M44,LEN(M44),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O44">
+      <c r="N44">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>-0.20846493899999999</v>
       </c>
@@ -2678,7 +2160,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="str">
-        <f>MID(D45,LEN(D45),1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F45">
@@ -2687,15 +2169,11 @@
       <c r="M45" t="s">
         <v>101</v>
       </c>
-      <c r="N45" t="str">
-        <f>MID(M45,LEN(M45),1)</f>
-        <v>A</v>
-      </c>
-      <c r="O45">
+      <c r="N45">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2709,11 +2187,20 @@
         <v>11</v>
       </c>
       <c r="E46" t="str">
-        <f>MID(D46,LEN(D46),1)</f>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>109</v>
+      </c>
+      <c r="N46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>-1.534832559</v>
       </c>
@@ -2727,11 +2214,11 @@
         <v>29</v>
       </c>
       <c r="E47" t="str">
-        <f>MID(D47,LEN(D47),1)</f>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>-1.925262966</v>
       </c>
@@ -2745,7 +2232,7 @@
         <v>73</v>
       </c>
       <c r="E48" t="str">
-        <f>MID(D48,LEN(D48),1)</f>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
@@ -2763,10 +2250,10 @@
         <v>88</v>
       </c>
       <c r="E49" t="str">
-        <f>MID(D49,LEN(D49),1)</f>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <f>19/44</f>
         <v>0.43181818181818182</v>
       </c>
@@ -2785,7 +2272,7 @@
         <v>26</v>
       </c>
       <c r="E50" t="str">
-        <f>MID(D50,LEN(D50),1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
     </row>
@@ -2803,7 +2290,7 @@
         <v>28</v>
       </c>
       <c r="E51" t="str">
-        <f>MID(D51,LEN(D51),1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
     </row>
@@ -2821,7 +2308,7 @@
         <v>54</v>
       </c>
       <c r="E52" t="str">
-        <f>MID(D52,LEN(D52),1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
     </row>
@@ -2839,7 +2326,7 @@
         <v>95</v>
       </c>
       <c r="E53" t="str">
-        <f>MID(D53,LEN(D53),1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
     </row>
@@ -2857,7 +2344,7 @@
         <v>17</v>
       </c>
       <c r="E54" t="str">
-        <f>MID(D54,LEN(D54),1)</f>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
     </row>
@@ -2869,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="E55" t="str">
-        <f>MID(D55,LEN(D55),1)</f>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
     </row>
@@ -2887,7 +2374,7 @@
         <v>58</v>
       </c>
       <c r="E56" t="str">
-        <f>MID(D56,LEN(D56),1)</f>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
     </row>
@@ -2905,7 +2392,7 @@
         <v>59</v>
       </c>
       <c r="E57" t="str">
-        <f>MID(D57,LEN(D57),1)</f>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
     </row>
@@ -2923,7 +2410,7 @@
         <v>67</v>
       </c>
       <c r="E58" t="str">
-        <f>MID(D58,LEN(D58),1)</f>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
     </row>
@@ -2941,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="E59" t="str">
-        <f>MID(D59,LEN(D59),1)</f>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
     </row>
@@ -2959,7 +2446,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="str">
-        <f>MID(D60,LEN(D60),1)</f>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
     </row>
@@ -2977,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="str">
-        <f>MID(D61,LEN(D61),1)</f>
+        <f t="shared" si="1"/>
         <v>G</v>
       </c>
     </row>
@@ -2995,7 +2482,7 @@
         <v>53</v>
       </c>
       <c r="E62" t="str">
-        <f>MID(D62,LEN(D62),1)</f>
+        <f t="shared" si="1"/>
         <v>G</v>
       </c>
     </row>
@@ -3004,7 +2491,7 @@
         <v>65</v>
       </c>
       <c r="E63" t="str">
-        <f>MID(D63,LEN(D63),1)</f>
+        <f t="shared" si="1"/>
         <v>G</v>
       </c>
     </row>
@@ -3013,7 +2500,7 @@
         <v>90</v>
       </c>
       <c r="E64" t="str">
-        <f>MID(D64,LEN(D64),1)</f>
+        <f t="shared" si="1"/>
         <v>G</v>
       </c>
     </row>
@@ -3022,7 +2509,7 @@
         <v>99</v>
       </c>
       <c r="E65" t="str">
-        <f>MID(D65,LEN(D65),1)</f>
+        <f t="shared" si="1"/>
         <v>G</v>
       </c>
     </row>
@@ -3040,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="E66" t="str">
-        <f>MID(D66,LEN(D66),1)</f>
+        <f t="shared" ref="E66:E97" si="2">MID(D66,LEN(D66),1)</f>
         <v>H</v>
       </c>
     </row>
@@ -3058,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="E67" t="str">
-        <f>MID(D67,LEN(D67),1)</f>
+        <f t="shared" si="2"/>
         <v>H</v>
       </c>
     </row>
@@ -3076,7 +2563,7 @@
         <v>51</v>
       </c>
       <c r="E68" t="str">
-        <f>MID(D68,LEN(D68),1)</f>
+        <f t="shared" si="2"/>
         <v>H</v>
       </c>
     </row>
@@ -3094,7 +2581,7 @@
         <v>75</v>
       </c>
       <c r="E69" t="str">
-        <f>MID(D69,LEN(D69),1)</f>
+        <f t="shared" si="2"/>
         <v>H</v>
       </c>
     </row>
@@ -3112,7 +2599,7 @@
         <v>37</v>
       </c>
       <c r="E70" t="str">
-        <f>MID(D70,LEN(D70),1)</f>
+        <f t="shared" si="2"/>
         <v>K</v>
       </c>
     </row>
@@ -3130,7 +2617,7 @@
         <v>50</v>
       </c>
       <c r="E71" t="str">
-        <f>MID(D71,LEN(D71),1)</f>
+        <f t="shared" si="2"/>
         <v>K</v>
       </c>
     </row>
@@ -3148,7 +2635,7 @@
         <v>55</v>
       </c>
       <c r="E72" t="str">
-        <f>MID(D72,LEN(D72),1)</f>
+        <f t="shared" si="2"/>
         <v>K</v>
       </c>
     </row>
@@ -3157,7 +2644,7 @@
         <v>72</v>
       </c>
       <c r="E73" t="str">
-        <f>MID(D73,LEN(D73),1)</f>
+        <f t="shared" si="2"/>
         <v>K</v>
       </c>
     </row>
@@ -3175,7 +2662,7 @@
         <v>38</v>
       </c>
       <c r="E74" t="str">
-        <f>MID(D74,LEN(D74),1)</f>
+        <f t="shared" si="2"/>
         <v>L</v>
       </c>
     </row>
@@ -3193,7 +2680,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="str">
-        <f>MID(D75,LEN(D75),1)</f>
+        <f t="shared" si="2"/>
         <v>L</v>
       </c>
     </row>
@@ -3211,7 +2698,7 @@
         <v>19</v>
       </c>
       <c r="E76" t="str">
-        <f>MID(D76,LEN(D76),1)</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
     </row>
@@ -3229,7 +2716,7 @@
         <v>57</v>
       </c>
       <c r="E77" t="str">
-        <f>MID(D77,LEN(D77),1)</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
     </row>
@@ -3247,7 +2734,7 @@
         <v>68</v>
       </c>
       <c r="E78" t="str">
-        <f>MID(D78,LEN(D78),1)</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
     </row>
@@ -3256,7 +2743,7 @@
         <v>70</v>
       </c>
       <c r="E79" t="str">
-        <f>MID(D79,LEN(D79),1)</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
     </row>
@@ -3274,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="E80" t="str">
-        <f>MID(D80,LEN(D80),1)</f>
+        <f t="shared" si="2"/>
         <v>P</v>
       </c>
     </row>
@@ -3292,7 +2779,7 @@
         <v>33</v>
       </c>
       <c r="E81" t="str">
-        <f>MID(D81,LEN(D81),1)</f>
+        <f t="shared" si="2"/>
         <v>Q</v>
       </c>
     </row>
@@ -3310,7 +2797,7 @@
         <v>52</v>
       </c>
       <c r="E82" t="str">
-        <f>MID(D82,LEN(D82),1)</f>
+        <f t="shared" si="2"/>
         <v>Q</v>
       </c>
     </row>
@@ -3319,7 +2806,7 @@
         <v>100</v>
       </c>
       <c r="E83" t="str">
-        <f>MID(D83,LEN(D83),1)</f>
+        <f t="shared" si="2"/>
         <v>Q</v>
       </c>
     </row>
@@ -3337,7 +2824,7 @@
         <v>18</v>
       </c>
       <c r="E84" t="str">
-        <f>MID(D84,LEN(D84),1)</f>
+        <f t="shared" si="2"/>
         <v>R</v>
       </c>
     </row>
@@ -3355,7 +2842,7 @@
         <v>34</v>
       </c>
       <c r="E85" t="str">
-        <f>MID(D85,LEN(D85),1)</f>
+        <f t="shared" si="2"/>
         <v>R</v>
       </c>
     </row>
@@ -3373,7 +2860,7 @@
         <v>36</v>
       </c>
       <c r="E86" t="str">
-        <f>MID(D86,LEN(D86),1)</f>
+        <f t="shared" si="2"/>
         <v>R</v>
       </c>
     </row>
@@ -3391,7 +2878,7 @@
         <v>48</v>
       </c>
       <c r="E87" t="str">
-        <f>MID(D87,LEN(D87),1)</f>
+        <f t="shared" si="2"/>
         <v>R</v>
       </c>
     </row>
@@ -3409,7 +2896,7 @@
         <v>60</v>
       </c>
       <c r="E88" t="str">
-        <f>MID(D88,LEN(D88),1)</f>
+        <f t="shared" si="2"/>
         <v>R</v>
       </c>
     </row>
@@ -3427,7 +2914,7 @@
         <v>69</v>
       </c>
       <c r="E89" t="str">
-        <f>MID(D89,LEN(D89),1)</f>
+        <f t="shared" si="2"/>
         <v>R</v>
       </c>
     </row>
@@ -3445,7 +2932,7 @@
         <v>85</v>
       </c>
       <c r="E90" t="str">
-        <f>MID(D90,LEN(D90),1)</f>
+        <f t="shared" si="2"/>
         <v>R</v>
       </c>
     </row>
@@ -3463,7 +2950,7 @@
         <v>86</v>
       </c>
       <c r="E91" t="str">
-        <f>MID(D91,LEN(D91),1)</f>
+        <f t="shared" si="2"/>
         <v>R</v>
       </c>
     </row>
@@ -3472,7 +2959,7 @@
         <v>98</v>
       </c>
       <c r="E92" t="str">
-        <f>MID(D92,LEN(D92),1)</f>
+        <f t="shared" si="2"/>
         <v>R</v>
       </c>
     </row>
@@ -3490,7 +2977,7 @@
         <v>6</v>
       </c>
       <c r="E93" t="str">
-        <f>MID(D93,LEN(D93),1)</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
     </row>
@@ -3505,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="E94" t="str">
-        <f>MID(D94,LEN(D94),1)</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
     </row>
@@ -3523,7 +3010,7 @@
         <v>25</v>
       </c>
       <c r="E95" t="str">
-        <f>MID(D95,LEN(D95),1)</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
     </row>
@@ -3541,7 +3028,7 @@
         <v>41</v>
       </c>
       <c r="E96" t="str">
-        <f>MID(D96,LEN(D96),1)</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
     </row>
@@ -3550,7 +3037,7 @@
         <v>89</v>
       </c>
       <c r="E97" t="str">
-        <f>MID(D97,LEN(D97),1)</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
     </row>
@@ -3568,7 +3055,7 @@
         <v>104</v>
       </c>
       <c r="E98" t="str">
-        <f>MID(D98,LEN(D98),1)</f>
+        <f t="shared" ref="E98:E129" si="3">MID(D98,LEN(D98),1)</f>
         <v>S</v>
       </c>
     </row>
@@ -3586,7 +3073,7 @@
         <v>84</v>
       </c>
       <c r="E99" t="str">
-        <f>MID(D99,LEN(D99),1)</f>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
     </row>
@@ -3604,7 +3091,7 @@
         <v>105</v>
       </c>
       <c r="E100" t="str">
-        <f>MID(D100,LEN(D100),1)</f>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
     </row>
@@ -3613,7 +3100,7 @@
         <v>77</v>
       </c>
       <c r="E101" t="str">
-        <f>MID(D101,LEN(D101),1)</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
     </row>
@@ -3631,7 +3118,7 @@
         <v>47</v>
       </c>
       <c r="E102" t="str">
-        <f>MID(D102,LEN(D102),1)</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
     </row>
@@ -3641,7 +3128,6 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
